--- a/medicine/Bioéthique/Comité_international_de_bioéthique/Comité_international_de_bioéthique.xlsx
+++ b/medicine/Bioéthique/Comité_international_de_bioéthique/Comité_international_de_bioéthique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_international_de_bio%C3%A9thique</t>
+          <t>Comité_international_de_bioéthique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Comité international de bioéthique (CIB) est une instance internationale créée en 1993 par Federico Mayor Zaragoza, directeur de l'UNESCO. Il est composé de 36 experts indépendants (de différents pays et disciplines) chargés de suivre les progrès des recherches dans les sciences de la vie et leurs applications en veillant au respect des principes de dignité et de liberté de l'homme.
 L'émergence de ce comité est en lien avec le développement des Comités de protection des personnes et de la bioéthique en tant que soft law.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_international_de_bio%C3%A9thique</t>
+          <t>Comité_international_de_bioéthique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Fonctions du comité international de bioéthique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les fonctions du Comité international de bioéthique CIB sont les suivantes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les fonctions du Comité international de bioéthique CIB sont les suivantes :
 Favorise la réflexion sur les questions éthiques et juridiques liées aux recherches en sciences de la vie et à leurs applications et encourage également l'échange d'idées et d'informations, en particulier par le biais de l'éducation.
 Sensibilise l'opinion publique, les experts et les décideurs du secteur public et privé impliqués dans le domaine de la bioéthique.
 Le CIB coopère avec les organisations internationales gouvernementales et non gouvernementales concernées par les questions de bioéthique, ainsi qu'avec les comités nationaux et régionaux de bioéthique et des entités similaires.</t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_international_de_bio%C3%A9thique</t>
+          <t>Comité_international_de_bioéthique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,11 +559,13 @@
           <t>Déclaration sur le génome humain et les droits de l'homme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette déclaration, élaborée à l'UNESCO de 1994 à 1997 sous l'égide du CIB, alors présidé par Noëlle Lenoir, est approuvée par l'Assemblée générale des Nations unies le 9 décembre 1998 et constitue le premier texte juridique international sur la bioéthique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette déclaration, élaborée à l'UNESCO de 1994 à 1997 sous l'égide du CIB, alors présidé par Noëlle Lenoir, est approuvée par l'Assemblée générale des Nations unies le 9 décembre 1998 et constitue le premier texte juridique international sur la bioéthique.
 Conformément  à  l’article  24  de  la  Déclaration  universelle  sur  le  génome  humain et les droits de l’homme :
-Le CIB contribue à diffuser les principes énoncés dans la Déclaration, explore les applications et les évolutions techniques en question, organise des consultations avec les parties concernées telles que les groupes vulnérables, formule des recommandations à l'UNESCO et identifie les pratiques contraires à la dignité humaine[1].
+Le CIB contribue à diffuser les principes énoncés dans la Déclaration, explore les applications et les évolutions techniques en question, organise des consultations avec les parties concernées telles que les groupes vulnérables, formule des recommandations à l'UNESCO et identifie les pratiques contraires à la dignité humaine.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_international_de_bio%C3%A9thique</t>
+          <t>Comité_international_de_bioéthique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,9 +594,11 @@
           <t>Déclaration internationale sur les données génétiques humaines</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette déclaration est une extension de la première déclaration et est adoptée par l'UNESCO le 16 octobre 2003 : elle met en place des règles sur la collecte, le traitement et la conservation des données génétiques humaines. Elle traite notamment de problèmes de confidentialité de ces données ou de discrimination génétique(en)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette déclaration est une extension de la première déclaration et est adoptée par l'UNESCO le 16 octobre 2003 : elle met en place des règles sur la collecte, le traitement et la conservation des données génétiques humaines. Elle traite notamment de problèmes de confidentialité de ces données ou de discrimination génétique(en).
 </t>
         </is>
       </c>
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Comit%C3%A9_international_de_bio%C3%A9thique</t>
+          <t>Comité_international_de_bioéthique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,10 +627,12 @@
           <t>Déclaration universelle sur la bioéthique et les droits de l'homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette déclaration, adoptée par la Conférence générale de l'UNESCO le 19 octobre 2005, a un cadre plus général : elle examine la forme et la portée d’un « instrument universel de bioéthique » [4].
-La Déclaration universelle sur la bioéthique et les droits de l'homme a pour but d'énoncer les principes éthiques fondamentaux qui doivent guider les pratiques scientifiques et médicales qui doivent être respectés dans tous dans le monde entier, tels que le respect de la dignité humaine, des droits de l'homme et des libertés fondamentales. Elle vise également à encourager le dialogue et le partage des connaissances scientifiques et technologiques entre les différentes sociétés et inscrit la bioéthique dans le droit international relatif aux droits de l'homme afin d'assurer l'application de ces droits aux problèmes d'ordre bioéthique[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette déclaration, adoptée par la Conférence générale de l'UNESCO le 19 octobre 2005, a un cadre plus général : elle examine la forme et la portée d’un « instrument universel de bioéthique » .
+La Déclaration universelle sur la bioéthique et les droits de l'homme a pour but d'énoncer les principes éthiques fondamentaux qui doivent guider les pratiques scientifiques et médicales qui doivent être respectés dans tous dans le monde entier, tels que le respect de la dignité humaine, des droits de l'homme et des libertés fondamentales. Elle vise également à encourager le dialogue et le partage des connaissances scientifiques et technologiques entre les différentes sociétés et inscrit la bioéthique dans le droit international relatif aux droits de l'homme afin d'assurer l'application de ces droits aux problèmes d'ordre bioéthique.
 </t>
         </is>
       </c>
